--- a/config_1.25/act_hhl_ty_config.xlsx
+++ b/config_1.25/act_hhl_ty_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="config_infor" sheetId="9" r:id="rId1"/>
@@ -178,10 +178,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ty_icon_jb_15y</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ty_icon_jb_30y</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -247,6 +243,10 @@
   </si>
   <si>
     <t>ty_icon_flq5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_icon_gold2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -693,7 +693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
@@ -760,7 +760,7 @@
         <v>57</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>11</v>
@@ -773,7 +773,7 @@
         <v>1645459199</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>12</v>
@@ -793,7 +793,7 @@
         <v>57</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>11</v>
@@ -806,7 +806,7 @@
         <v>1645459199</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K3" s="18" t="s">
         <v>31</v>
@@ -830,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -880,7 +880,7 @@
         <v>37</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D2" s="5">
         <v>10</v>
@@ -896,10 +896,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2">
         <v>1200</v>
@@ -918,7 +918,7 @@
         <v>38</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" s="2">
         <v>3000</v>
@@ -934,10 +934,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2">
         <v>6000</v>
@@ -956,7 +956,7 @@
         <v>28</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2">
         <v>9000</v>
@@ -972,10 +972,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" s="2">
         <v>12000</v>
@@ -993,7 +993,7 @@
         <v>29</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" s="2">
         <v>24000</v>
@@ -1008,10 +1008,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" s="2">
         <v>30000</v>
@@ -1029,7 +1029,7 @@
         <v>30</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="2">
         <v>42000</v>
@@ -1046,10 +1046,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" s="5">
         <v>60000</v>
@@ -1066,10 +1066,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D12" s="5">
         <v>300000</v>
@@ -1289,16 +1289,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
   <rangeList sheetStid="1" master=""/>
   <rangeList sheetStid="2" master=""/>
@@ -1308,15 +1298,24 @@
 </allowEditUser>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+    <isAutoUpdatePaused>0</isAutoUpdatePaused>
+    <filterType>conn</filterType>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1331,17 +1330,18 @@
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-    <isAutoUpdatePaused>0</isAutoUpdatePaused>
-    <filterType>conn</filterType>
-  </bookSettings>
-</settings>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1353,13 +1353,13 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1371,7 +1371,7 @@
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>